--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H2">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I2">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J2">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>2306.795388906473</v>
+        <v>2603.868323261825</v>
       </c>
       <c r="R2">
-        <v>20761.15850015826</v>
+        <v>23434.81490935643</v>
       </c>
       <c r="S2">
-        <v>0.04446566670971869</v>
+        <v>0.04300905946641546</v>
       </c>
       <c r="T2">
-        <v>0.04446566670971869</v>
+        <v>0.04300905946641546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H3">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I3">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J3">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>2536.239614657581</v>
+        <v>3016.677778519988</v>
       </c>
       <c r="R3">
-        <v>22826.15653191823</v>
+        <v>27150.10000667989</v>
       </c>
       <c r="S3">
-        <v>0.04888842154952034</v>
+        <v>0.04982758644448325</v>
       </c>
       <c r="T3">
-        <v>0.04888842154952033</v>
+        <v>0.04982758644448325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H4">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I4">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J4">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1405.792510099682</v>
+        <v>2289.786756280078</v>
       </c>
       <c r="R4">
-        <v>12652.13259089713</v>
+        <v>20608.08080652071</v>
       </c>
       <c r="S4">
-        <v>0.02709798255958179</v>
+        <v>0.03782125765979369</v>
       </c>
       <c r="T4">
-        <v>0.02709798255958178</v>
+        <v>0.03782125765979369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.02514266666667</v>
+        <v>17.87134533333333</v>
       </c>
       <c r="H5">
-        <v>45.075428</v>
+        <v>53.614036</v>
       </c>
       <c r="I5">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="J5">
-        <v>0.1401726531301337</v>
+        <v>0.1500697615111392</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>1023.066822302796</v>
+        <v>1175.238952301615</v>
       </c>
       <c r="R5">
-        <v>9207.601400725162</v>
+        <v>10577.15057071453</v>
       </c>
       <c r="S5">
-        <v>0.01972058231131288</v>
+        <v>0.01941185794044679</v>
       </c>
       <c r="T5">
-        <v>0.01972058231131288</v>
+        <v>0.01941185794044679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I6">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J6">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>5106.853461748337</v>
+        <v>4846.4607225668</v>
       </c>
       <c r="R6">
-        <v>45961.68115573504</v>
+        <v>43618.1465031012</v>
       </c>
       <c r="S6">
-        <v>0.09843943899728397</v>
+        <v>0.08005079041685589</v>
       </c>
       <c r="T6">
-        <v>0.09843943899728397</v>
+        <v>0.08005079041685589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I7">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J7">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>5614.804034300276</v>
@@ -883,10 +883,10 @@
         <v>50533.23630870248</v>
       </c>
       <c r="S7">
-        <v>0.1082306675443517</v>
+        <v>0.09274180205125827</v>
       </c>
       <c r="T7">
-        <v>0.1082306675443517</v>
+        <v>0.09274180205125827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I8">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J8">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>3112.18601408151</v>
+        <v>4261.875102602557</v>
       </c>
       <c r="R8">
-        <v>28009.67412673359</v>
+        <v>38356.87592342301</v>
       </c>
       <c r="S8">
-        <v>0.05999033408264153</v>
+        <v>0.07039497277521806</v>
       </c>
       <c r="T8">
-        <v>0.05999033408264152</v>
+        <v>0.07039497277521806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>99.78934699999999</v>
       </c>
       <c r="I9">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="J9">
-        <v>0.3103184627135109</v>
+        <v>0.2793179663930228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>2264.896300817399</v>
+        <v>2187.418377141804</v>
       </c>
       <c r="R9">
-        <v>20384.06670735659</v>
+        <v>19686.76539427624</v>
       </c>
       <c r="S9">
-        <v>0.04365802208923369</v>
+        <v>0.03613040114969055</v>
       </c>
       <c r="T9">
-        <v>0.04365802208923369</v>
+        <v>0.03613040114969055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H10">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I10">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J10">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>1347.738767524559</v>
+        <v>1836.619760772902</v>
       </c>
       <c r="R10">
-        <v>12129.64890772104</v>
+        <v>16529.57784695612</v>
       </c>
       <c r="S10">
-        <v>0.02597894166804399</v>
+        <v>0.03033613021157856</v>
       </c>
       <c r="T10">
-        <v>0.02597894166804399</v>
+        <v>0.03033613021157857</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H11">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I11">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J11">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>1481.790916023094</v>
+        <v>2127.791935720399</v>
       </c>
       <c r="R11">
-        <v>13336.11824420785</v>
+        <v>19150.12742148359</v>
       </c>
       <c r="S11">
-        <v>0.02856292383894784</v>
+        <v>0.03514552908763041</v>
       </c>
       <c r="T11">
-        <v>0.02856292383894784</v>
+        <v>0.03514552908763042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H12">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I12">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J12">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>821.3303503502964</v>
+        <v>1615.084590480348</v>
       </c>
       <c r="R12">
-        <v>7391.973153152667</v>
+        <v>14535.76131432314</v>
       </c>
       <c r="S12">
-        <v>0.01583192067787399</v>
+        <v>0.02667695158572574</v>
       </c>
       <c r="T12">
-        <v>0.01583192067787399</v>
+        <v>0.02667695158572574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.778397666666667</v>
+        <v>12.60542466666667</v>
       </c>
       <c r="H13">
-        <v>26.335193</v>
+        <v>37.816274</v>
       </c>
       <c r="I13">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="J13">
-        <v>0.08189548135858243</v>
+        <v>0.1058506250195358</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>597.7239354719123</v>
+        <v>828.9463273332152</v>
       </c>
       <c r="R13">
-        <v>5379.515419247211</v>
+        <v>7460.516945998937</v>
       </c>
       <c r="S13">
-        <v>0.01152169517371662</v>
+        <v>0.01369201413460109</v>
       </c>
       <c r="T13">
-        <v>0.01152169517371662</v>
+        <v>0.01369201413460109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H14">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I14">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J14">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>7695.427155561744</v>
+        <v>8064.103777489829</v>
       </c>
       <c r="R14">
-        <v>69258.84440005569</v>
+        <v>72576.93399740847</v>
       </c>
       <c r="S14">
-        <v>0.1483366495068023</v>
+        <v>0.1331977949157343</v>
       </c>
       <c r="T14">
-        <v>0.1483366495068022</v>
+        <v>0.1331977949157343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H15">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I15">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J15">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>8460.84888911607</v>
+        <v>9342.562545082485</v>
       </c>
       <c r="R15">
-        <v>76147.64000204463</v>
+        <v>84083.06290574236</v>
       </c>
       <c r="S15">
-        <v>0.1630908786249452</v>
+        <v>0.1543145728532122</v>
       </c>
       <c r="T15">
-        <v>0.1630908786249451</v>
+        <v>0.1543145728532122</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H16">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I16">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J16">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>4689.698058757916</v>
+        <v>7091.402382372949</v>
       </c>
       <c r="R16">
-        <v>42207.28252882123</v>
+        <v>63822.62144135654</v>
       </c>
       <c r="S16">
-        <v>0.09039837336799833</v>
+        <v>0.117131324974873</v>
       </c>
       <c r="T16">
-        <v>0.09039837336799829</v>
+        <v>0.117131324974873</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.12360066666667</v>
+        <v>55.34703199999999</v>
       </c>
       <c r="H17">
-        <v>150.370802</v>
+        <v>166.041096</v>
       </c>
       <c r="I17">
-        <v>0.467613402797773</v>
+        <v>0.4647616470763022</v>
       </c>
       <c r="J17">
-        <v>0.4676134027977729</v>
+        <v>0.4647616470763023</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>3412.932176024216</v>
+        <v>3639.680543767527</v>
       </c>
       <c r="R17">
-        <v>30716.38958421794</v>
+        <v>32757.12489390774</v>
       </c>
       <c r="S17">
-        <v>0.06578750129802721</v>
+        <v>0.06011795433248279</v>
       </c>
       <c r="T17">
-        <v>0.0657875012980272</v>
+        <v>0.0601179543324828</v>
       </c>
     </row>
   </sheetData>
